--- a/pred_ohlcv/54_21/2019-11-21 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 ORBS ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>13184.56662886566</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>13184.56662886566</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-92738.50867113433</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-90238.50867113433</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-173191.2725711343</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-173191.2725711343</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-172295.2792711343</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-411242.9847711343</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-411242.9847711343</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-386023.3803711343</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-429773.6537711343</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-303882.4167711344</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-141493.8720122318</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-131936.9865122318</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-57847.16591223176</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-57847.16591223176</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>108755.3658877682</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-48404.22191223176</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-48404.22191223176</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-48404.22191223176</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-48404.22191223176</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-75622.43641223175</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-94473.31741223176</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>5591453.112187768</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>5591453.112187768</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>5591453.112187768</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>5591453.112187768</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>5591704.500487768</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>5589970.523587768</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>5531140.523587768</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>5744753.290687768</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>5899399.429436986</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>5899399.429436986</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>5765375.388336986</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>5765375.388336986</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>5873387.816036986</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>5778250.278815499</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>5780553.526415499</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>5780553.526415499</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>5590999.930215499</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>5510833.813915499</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>5490281.987002277</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>5460632.417502277</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>5460632.417502277</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>5460632.417502277</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>5468965.750902276</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>5462425.365502276</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>5192108.694502276</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>5192108.694502276</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>5192108.694502276</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>5192108.694502276</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>4962846.049717403</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>4839064.14733253</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>4860136.76563253</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>4860136.76563253</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>4860136.76563253</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>4684029.93643253</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>4727665.84253253</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>4718914.84253253</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>4718914.84253253</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>4718914.84253253</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>4677839.26803253</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>4677839.26803253</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-21 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 ORBS ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>13184.56662886566</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>13184.56662886566</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>14560.06902886566</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-92738.50867113433</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-90238.50867113433</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-117277.5086711343</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-173191.2725711343</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-173191.2725711343</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-172295.2792711343</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-411242.9847711343</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-411242.9847711343</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-386023.3803711343</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-386023.3803711343</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-429773.6537711343</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-429773.6537711343</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-303882.4167711344</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-304012.4167711344</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-303962.4167711344</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-303962.4167711344</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-155511.5393252753</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-155511.5393252753</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-155511.5393252753</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-163311.8413252753</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-138251.9970122318</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-138251.9970122318</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-141493.8720122318</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-141493.8720122318</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-141493.8720122318</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-131936.9865122318</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-131936.9865122318</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-121936.9865122318</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-124836.9865122318</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-124836.9865122318</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-103916.9865122318</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-96799.98651223176</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-57847.16591223176</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-57847.16591223176</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>108755.3658877682</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-48404.22191223176</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-48404.22191223176</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-48404.22191223176</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-48404.22191223176</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-75622.43641223175</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-94473.31741223176</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-8506.499512231763</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>5591453.112187768</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>5591453.112187768</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>5591453.112187768</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>5591453.112187768</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>5591704.500487768</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>5589970.523587768</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>5531140.523587768</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>5744753.290687768</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>5899399.429436986</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>5899399.429436986</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>5765375.388336986</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>5765375.388336986</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>5778250.278815499</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>5780553.526415499</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>5780553.526415499</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>5553622.812902276</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>5490281.987002277</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>5460632.417502277</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>5468965.750902276</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>5192108.694502276</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>5192108.694502276</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>5192108.694502276</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>5192108.694502276</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>4962846.049717403</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>4839064.14733253</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>4860136.76563253</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>4860136.76563253</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>4860136.76563253</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>4684029.93643253</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>4727665.84253253</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>4718914.84253253</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>4718914.84253253</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>4718914.84253253</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>4677839.26803253</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>4677839.26803253</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
